--- a/8801 송신 매니저 Module Architecture.xlsx
+++ b/8801 송신 매니저 Module Architecture.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,102 @@
   </si>
   <si>
     <t>2. CheckBox로 전회차보기 체크 해제시, 같은 수신처로 전송한 대상은 1회차만 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desgin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRMaskEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRUserDblCodeCombo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRMaskEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRCheckBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRRadioButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRRadioButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRCheckBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnKeyPress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnChange??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 위 컬럼별로 나눠보고, 더 나눠야 될 기준이 생기거나 위 기준 레벨이 달라질 경우 수정하기로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수로 나뉘어야할 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뉘는 함수 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +325,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -258,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,11 +381,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="P1:S25"/>
+  <dimension ref="P1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12:R13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -617,10 +727,14 @@
     <col min="16" max="16" width="3.8125" style="3" customWidth="1"/>
     <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="37.9375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.9375" customWidth="1"/>
+    <col min="20" max="20" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.4375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="16:19" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="16:23" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="P1" s="3" t="s">
         <v>0</v>
       </c>
@@ -631,266 +745,463 @@
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P2" s="5">
         <v>1</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P3" s="5"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="6"/>
-      <c r="S3" t="s">
+      <c r="R3" s="7"/>
+      <c r="S3" s="8"/>
+      <c r="T3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="16:19" x14ac:dyDescent="0.6">
+    <row r="4" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P4" s="2">
         <v>2</v>
       </c>
       <c r="Q4" s="4"/>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P5" s="2">
         <v>3</v>
       </c>
       <c r="Q5" s="4"/>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P6" s="2">
         <v>4</v>
       </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="S6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P7" s="2">
         <v>5</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P8" s="2">
         <v>6</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P9" s="2">
         <v>7</v>
       </c>
       <c r="Q9" s="4"/>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P10" s="2">
         <v>8</v>
       </c>
       <c r="Q10" s="4"/>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P11" s="2">
         <v>9</v>
       </c>
       <c r="Q11" s="4"/>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P12" s="5">
         <v>10</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P13" s="5"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="6"/>
-      <c r="S13" t="s">
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
+      <c r="T13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P14" s="5">
         <v>11</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P15" s="5"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="6"/>
-      <c r="S15" t="s">
+      <c r="R15" s="7"/>
+      <c r="S15" s="8"/>
+      <c r="T15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="16:23" x14ac:dyDescent="0.6">
       <c r="P16" s="5"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="6"/>
-      <c r="S16" t="s">
+      <c r="R16" s="7"/>
+      <c r="S16" s="8"/>
+      <c r="T16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.6">
       <c r="P17" s="5"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="6"/>
-      <c r="S17" t="s">
+      <c r="R17" s="7"/>
+      <c r="S17" s="8"/>
+      <c r="T17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.6">
       <c r="P18" s="5">
         <v>12</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.6">
       <c r="P19" s="5"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="6"/>
-      <c r="S19" t="s">
+      <c r="R19" s="7"/>
+      <c r="S19" s="8"/>
+      <c r="T19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.6">
       <c r="P20" s="5"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="6"/>
-      <c r="S20" t="s">
+      <c r="R20" s="7"/>
+      <c r="S20" s="8"/>
+      <c r="T20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="16:21" x14ac:dyDescent="0.6">
       <c r="P21" s="5">
         <v>13</v>
       </c>
       <c r="Q21" s="4"/>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.6">
       <c r="P22" s="5"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="6"/>
-      <c r="S22" t="s">
+      <c r="R22" s="7"/>
+      <c r="S22" s="8"/>
+      <c r="T22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="16:19" x14ac:dyDescent="0.6">
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.6">
       <c r="P23" s="5"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="6"/>
-      <c r="S23" t="s">
+      <c r="R23" s="7"/>
+      <c r="S23" s="8"/>
+      <c r="T23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="16:19" x14ac:dyDescent="0.6">
-      <c r="P24" s="2">
+      <c r="U23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.6">
+      <c r="P24" s="6">
         <v>14</v>
       </c>
       <c r="Q24" s="4"/>
-      <c r="R24" t="s">
+      <c r="R24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="16:19" x14ac:dyDescent="0.6">
-      <c r="S25" t="s">
+      <c r="U24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.6">
+      <c r="P25" s="6"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="8"/>
+      <c r="T25" t="s">
         <v>44</v>
       </c>
+      <c r="U25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="16:21" x14ac:dyDescent="0.6">
+      <c r="P26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.6">
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.6">
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.6">
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.6">
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="16:21" x14ac:dyDescent="0.6">
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+    </row>
+    <row r="32" spans="16:21" x14ac:dyDescent="0.6">
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="P26:U32"/>
     <mergeCell ref="R18:R20"/>
     <mergeCell ref="Q12:Q17"/>
     <mergeCell ref="P21:P23"/>
-    <mergeCell ref="Q18:Q24"/>
     <mergeCell ref="R21:R23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="Q18:Q25"/>
+    <mergeCell ref="P24:P25"/>
     <mergeCell ref="Q8:Q11"/>
     <mergeCell ref="Q2:Q7"/>
     <mergeCell ref="P2:P3"/>

--- a/8801 송신 매니저 Module Architecture.xlsx
+++ b/8801 송신 매니저 Module Architecture.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SettleNetTF\HankookFI\HankookFI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SettleNetTF\WorkingFI\HankookFI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,6 +375,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,15 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,14 +414,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5043</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
+      <xdr:colOff>440000</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>197168</xdr:rowOff>
     </xdr:to>
@@ -440,8 +440,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400050" y="257175"/>
-          <a:ext cx="9352598" cy="5512118"/>
+          <a:off x="161925" y="255774"/>
+          <a:ext cx="9321222" cy="5477100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -718,23 +718,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26:U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="16" max="16" width="3.8125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="3" customWidth="1"/>
     <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="37.9375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.9375" customWidth="1"/>
+    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38" customWidth="1"/>
     <col min="20" max="20" width="46.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.4375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.4375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="16:23" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="16:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P1" s="3" t="s">
         <v>0</v>
       </c>
@@ -760,17 +761,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="16:23" x14ac:dyDescent="0.6">
-      <c r="P2" s="5">
+    <row r="2" spans="16:23" x14ac:dyDescent="0.3">
+      <c r="P2" s="8">
         <v>1</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T2" t="s">
@@ -780,24 +781,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="16:23" x14ac:dyDescent="0.6">
-      <c r="P3" s="5"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8"/>
+    <row r="3" spans="16:23" x14ac:dyDescent="0.3">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="4"/>
       <c r="T3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="16:23" x14ac:dyDescent="0.6">
+    <row r="4" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P4" s="2">
         <v>2</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="8" t="s">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T4" t="s">
@@ -807,15 +808,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="16:23" x14ac:dyDescent="0.6">
+    <row r="5" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P5" s="2">
         <v>3</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="8" t="s">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T5" t="s">
@@ -825,30 +826,30 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="16:23" x14ac:dyDescent="0.6">
+    <row r="6" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P6" s="2">
         <v>4</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="8" t="s">
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="U6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="16:23" x14ac:dyDescent="0.6">
+    <row r="7" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P7" s="2">
         <v>5</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="8" t="s">
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T7" t="s">
@@ -858,17 +859,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="16:23" x14ac:dyDescent="0.6">
+    <row r="8" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P8" s="2">
         <v>6</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="T8" t="s">
@@ -878,15 +879,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="16:23" x14ac:dyDescent="0.6">
+    <row r="9" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P9" s="2">
         <v>7</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="8" t="s">
+      <c r="Q9" s="7"/>
+      <c r="R9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="4" t="s">
         <v>48</v>
       </c>
       <c r="T9" t="s">
@@ -896,15 +897,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="16:23" x14ac:dyDescent="0.6">
+    <row r="10" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P10" s="2">
         <v>8</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="8" t="s">
+      <c r="Q10" s="7"/>
+      <c r="R10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="T10" t="s">
@@ -914,15 +915,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="16:23" x14ac:dyDescent="0.6">
+    <row r="11" spans="16:23" x14ac:dyDescent="0.3">
       <c r="P11" s="2">
         <v>9</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="8" t="s">
+      <c r="Q11" s="7"/>
+      <c r="R11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="T11" t="s">
@@ -932,17 +933,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="16:23" x14ac:dyDescent="0.6">
-      <c r="P12" s="5">
+    <row r="12" spans="16:23" x14ac:dyDescent="0.3">
+      <c r="P12" s="8">
         <v>10</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="T12" t="s">
@@ -952,11 +953,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="16:23" x14ac:dyDescent="0.6">
-      <c r="P13" s="5"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="8"/>
+    <row r="13" spans="16:23" x14ac:dyDescent="0.3">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="4"/>
       <c r="T13" t="s">
         <v>26</v>
       </c>
@@ -964,15 +965,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="16:23" x14ac:dyDescent="0.6">
-      <c r="P14" s="5">
+    <row r="14" spans="16:23" x14ac:dyDescent="0.3">
+      <c r="P14" s="8">
         <v>11</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="7" t="s">
+      <c r="Q14" s="7"/>
+      <c r="R14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="4" t="s">
         <v>51</v>
       </c>
       <c r="T14" t="s">
@@ -982,11 +983,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="16:23" x14ac:dyDescent="0.6">
-      <c r="P15" s="5"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
+    <row r="15" spans="16:23" x14ac:dyDescent="0.3">
+      <c r="P15" s="8"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="4"/>
       <c r="T15" t="s">
         <v>30</v>
       </c>
@@ -994,11 +995,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="16:23" x14ac:dyDescent="0.6">
-      <c r="P16" s="5"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="8"/>
+    <row r="16" spans="16:23" x14ac:dyDescent="0.3">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="4"/>
       <c r="T16" t="s">
         <v>29</v>
       </c>
@@ -1006,11 +1007,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P17" s="5"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="8"/>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="4"/>
       <c r="T17" t="s">
         <v>28</v>
       </c>
@@ -1018,17 +1019,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P18" s="5">
+    <row r="18" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P18" s="8">
         <v>12</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="S18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="T18" t="s">
@@ -1038,11 +1039,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P19" s="5"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="8"/>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P19" s="8"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="4"/>
       <c r="T19" t="s">
         <v>34</v>
       </c>
@@ -1050,11 +1051,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P20" s="5"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="4"/>
       <c r="T20" t="s">
         <v>35</v>
       </c>
@@ -1062,15 +1063,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P21" s="5">
+    <row r="21" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P21" s="8">
         <v>13</v>
       </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="7" t="s">
+      <c r="Q21" s="7"/>
+      <c r="R21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="S21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="T21" t="s">
@@ -1080,11 +1081,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P22" s="5"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P22" s="8"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="4"/>
       <c r="T22" t="s">
         <v>41</v>
       </c>
@@ -1092,11 +1093,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P23" s="5"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="8"/>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P23" s="8"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="4"/>
       <c r="T23" t="s">
         <v>42</v>
       </c>
@@ -1104,15 +1105,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P24" s="6">
+    <row r="24" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P24" s="9">
         <v>14</v>
       </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="7" t="s">
+      <c r="Q24" s="7"/>
+      <c r="R24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S24" s="8" t="s">
+      <c r="S24" s="4" t="s">
         <v>53</v>
       </c>
       <c r="T24" t="s">
@@ -1122,11 +1123,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P25" s="6"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="8"/>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P25" s="9"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="4"/>
       <c r="T25" t="s">
         <v>44</v>
       </c>
@@ -1134,66 +1135,72 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P26" s="9" t="s">
+    <row r="26" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-    </row>
-    <row r="27" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-    </row>
-    <row r="28" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-    </row>
-    <row r="29" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-    </row>
-    <row r="30" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-    </row>
-    <row r="31" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-    </row>
-    <row r="32" spans="16:21" x14ac:dyDescent="0.6">
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q8:Q11"/>
+    <mergeCell ref="Q2:Q7"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="P12:P13"/>
     <mergeCell ref="P26:U32"/>
     <mergeCell ref="R18:R20"/>
     <mergeCell ref="Q12:Q17"/>
@@ -1202,13 +1209,7 @@
     <mergeCell ref="R24:R25"/>
     <mergeCell ref="Q18:Q25"/>
     <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q8:Q11"/>
-    <mergeCell ref="Q2:Q7"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R12:R13"/>
     <mergeCell ref="R14:R17"/>
-    <mergeCell ref="P12:P13"/>
     <mergeCell ref="P14:P17"/>
     <mergeCell ref="P18:P20"/>
   </mergeCells>
